--- a/文档/UI大小规范.xlsx
+++ b/文档/UI大小规范.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HowtoGetaJob\文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\HowToGetAJob\HowtoGetaJob\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CC53E8-0BA1-43B3-990C-1A5403C3287A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC7666F-D994-4CAB-94D3-31EA598A3C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5490" yWindow="5535" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>文件类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>64x64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -47,11 +43,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>256*128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品框/物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128*128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视情况而定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小（像素）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包/个人信息框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512x512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128*128</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,26 +421,26 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="24.625" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="24.625" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="5" max="5" width="26.625" customWidth="1"/>
+    <col min="6" max="6" width="21.375" customWidth="1"/>
+    <col min="7" max="7" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="1"/>
@@ -421,12 +449,12 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -434,23 +462,25 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="49.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -458,34 +488,46 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+    <row r="5" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+    <row r="6" spans="1:8" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+    <row r="7" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -494,7 +536,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -503,7 +545,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -512,7 +554,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -521,7 +563,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -530,7 +572,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -539,7 +581,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -548,7 +590,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -557,7 +599,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -566,7 +608,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -575,7 +617,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -584,7 +626,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -593,7 +635,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -602,7 +644,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -611,7 +653,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -620,7 +662,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -629,7 +671,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -638,7 +680,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -647,7 +689,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
